--- a/natmiOut/OldD7/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>15.5211578573143</v>
+        <v>0.436226</v>
       </c>
       <c r="H2">
-        <v>15.5211578573143</v>
+        <v>1.308678</v>
       </c>
       <c r="I2">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374315</v>
       </c>
       <c r="J2">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374314</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.462745182311199</v>
+        <v>0.1087903333333333</v>
       </c>
       <c r="N2">
-        <v>0.462745182311199</v>
+        <v>0.326371</v>
       </c>
       <c r="O2">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="P2">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="Q2">
-        <v>7.182341022363804</v>
+        <v>0.04745717194866667</v>
       </c>
       <c r="R2">
-        <v>7.182341022363804</v>
+        <v>0.4271145475379999</v>
       </c>
       <c r="S2">
-        <v>0.007754440976305933</v>
+        <v>4.258523959031354E-05</v>
       </c>
       <c r="T2">
-        <v>0.007754440976305933</v>
+        <v>4.258523959031352E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,185 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>15.5211578573143</v>
+        <v>0.436226</v>
       </c>
       <c r="H3">
-        <v>15.5211578573143</v>
+        <v>1.308678</v>
       </c>
       <c r="I3">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374315</v>
       </c>
       <c r="J3">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374314</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.4580476884852</v>
+        <v>0.467525</v>
       </c>
       <c r="N3">
-        <v>57.4580476884852</v>
+        <v>1.402575</v>
       </c>
       <c r="O3">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201815</v>
       </c>
       <c r="P3">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201814</v>
       </c>
       <c r="Q3">
-        <v>891.8154283460718</v>
+        <v>0.20394656065</v>
       </c>
       <c r="R3">
-        <v>891.8154283460718</v>
+        <v>1.83551904585</v>
       </c>
       <c r="S3">
-        <v>0.9628518166062539</v>
+        <v>0.0001830094966108631</v>
       </c>
       <c r="T3">
-        <v>0.9628518166062539</v>
+        <v>0.0001830094966108631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.470041185613847</v>
+        <v>0.436226</v>
       </c>
       <c r="H4">
-        <v>0.470041185613847</v>
+        <v>1.308678</v>
       </c>
       <c r="I4">
-        <v>0.02939374241744025</v>
+        <v>0.02612337021374315</v>
       </c>
       <c r="J4">
-        <v>0.02939374241744025</v>
+        <v>0.02612337021374314</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.462745182311199</v>
+        <v>65.34528366666666</v>
       </c>
       <c r="N4">
-        <v>0.462745182311199</v>
+        <v>196.035851</v>
       </c>
       <c r="O4">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844046</v>
       </c>
       <c r="P4">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844042</v>
       </c>
       <c r="Q4">
-        <v>0.2175092941306518</v>
+        <v>28.50531171277533</v>
       </c>
       <c r="R4">
-        <v>0.2175092941306518</v>
+        <v>256.547805414978</v>
       </c>
       <c r="S4">
-        <v>0.000234834711674412</v>
+        <v>0.02557896897434516</v>
       </c>
       <c r="T4">
-        <v>0.000234834711674412</v>
+        <v>0.02557896897434515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.436226</v>
+      </c>
+      <c r="H5">
+        <v>1.308678</v>
+      </c>
+      <c r="I5">
+        <v>0.02612337021374315</v>
+      </c>
+      <c r="J5">
+        <v>0.02612337021374314</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N5">
+        <v>2.443316</v>
+      </c>
+      <c r="O5">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P5">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q5">
+        <v>0.3552793218053333</v>
+      </c>
+      <c r="R5">
+        <v>3.197513896248</v>
+      </c>
+      <c r="S5">
+        <v>0.0003188065031968114</v>
+      </c>
+      <c r="T5">
+        <v>0.0003188065031968112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>15.76143266666667</v>
+      </c>
+      <c r="H6">
+        <v>47.284298</v>
+      </c>
+      <c r="I6">
+        <v>0.9438725354525366</v>
+      </c>
+      <c r="J6">
+        <v>0.9438725354525365</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1087903333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.326371</v>
+      </c>
+      <c r="O6">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="P6">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="Q6">
+        <v>1.714691513617555</v>
+      </c>
+      <c r="R6">
+        <v>15.432223622558</v>
+      </c>
+      <c r="S6">
+        <v>0.001538662038476832</v>
+      </c>
+      <c r="T6">
+        <v>0.001538662038476831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>15.76143266666667</v>
+      </c>
+      <c r="H7">
+        <v>47.284298</v>
+      </c>
+      <c r="I7">
+        <v>0.9438725354525366</v>
+      </c>
+      <c r="J7">
+        <v>0.9438725354525365</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.467525</v>
+      </c>
+      <c r="N7">
+        <v>1.402575</v>
+      </c>
+      <c r="O7">
+        <v>0.007005585233201815</v>
+      </c>
+      <c r="P7">
+        <v>0.007005585233201814</v>
+      </c>
+      <c r="Q7">
+        <v>7.368863807483334</v>
+      </c>
+      <c r="R7">
+        <v>66.31977426735</v>
+      </c>
+      <c r="S7">
+        <v>0.006612379496391047</v>
+      </c>
+      <c r="T7">
+        <v>0.006612379496391044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>15.76143266666667</v>
+      </c>
+      <c r="H8">
+        <v>47.284298</v>
+      </c>
+      <c r="I8">
+        <v>0.9438725354525366</v>
+      </c>
+      <c r="J8">
+        <v>0.9438725354525365</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>65.34528366666666</v>
+      </c>
+      <c r="N8">
+        <v>196.035851</v>
+      </c>
+      <c r="O8">
+        <v>0.9791603749844046</v>
+      </c>
+      <c r="P8">
+        <v>0.9791603749844042</v>
+      </c>
+      <c r="Q8">
+        <v>1029.9352885964</v>
+      </c>
+      <c r="R8">
+        <v>9269.417597367597</v>
+      </c>
+      <c r="S8">
+        <v>0.9242025857511864</v>
+      </c>
+      <c r="T8">
+        <v>0.924202585751186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>15.76143266666667</v>
+      </c>
+      <c r="H9">
+        <v>47.284298</v>
+      </c>
+      <c r="I9">
+        <v>0.9438725354525366</v>
+      </c>
+      <c r="J9">
+        <v>0.9438725354525365</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.443316</v>
+      </c>
+      <c r="O9">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P9">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q9">
+        <v>12.83672020579644</v>
+      </c>
+      <c r="R9">
+        <v>115.530481852168</v>
+      </c>
+      <c r="S9">
+        <v>0.0115189081664825</v>
+      </c>
+      <c r="T9">
+        <v>0.01151890816648249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.470041185613847</v>
-      </c>
-      <c r="H5">
-        <v>0.470041185613847</v>
-      </c>
-      <c r="I5">
-        <v>0.02939374241744025</v>
-      </c>
-      <c r="J5">
-        <v>0.02939374241744025</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>57.4580476884852</v>
-      </c>
-      <c r="N5">
-        <v>57.4580476884852</v>
-      </c>
-      <c r="O5">
-        <v>0.9920107243120196</v>
-      </c>
-      <c r="P5">
-        <v>0.9920107243120196</v>
-      </c>
-      <c r="Q5">
-        <v>27.00764885855255</v>
-      </c>
-      <c r="R5">
-        <v>27.00764885855255</v>
-      </c>
-      <c r="S5">
-        <v>0.02915890770576584</v>
-      </c>
-      <c r="T5">
-        <v>0.02915890770576584</v>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5010290000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.503087</v>
+      </c>
+      <c r="I10">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="J10">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1087903333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.326371</v>
+      </c>
+      <c r="O10">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="P10">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="Q10">
+        <v>0.05450711191966667</v>
+      </c>
+      <c r="R10">
+        <v>0.4905640072769999</v>
+      </c>
+      <c r="S10">
+        <v>4.891143583072812E-05</v>
+      </c>
+      <c r="T10">
+        <v>4.891143583072809E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5010290000000001</v>
+      </c>
+      <c r="H11">
+        <v>1.503087</v>
+      </c>
+      <c r="I11">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="J11">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.467525</v>
+      </c>
+      <c r="N11">
+        <v>1.402575</v>
+      </c>
+      <c r="O11">
+        <v>0.007005585233201815</v>
+      </c>
+      <c r="P11">
+        <v>0.007005585233201814</v>
+      </c>
+      <c r="Q11">
+        <v>0.2342435832250001</v>
+      </c>
+      <c r="R11">
+        <v>2.108192249025</v>
+      </c>
+      <c r="S11">
+        <v>0.0002101962401999059</v>
+      </c>
+      <c r="T11">
+        <v>0.0002101962401999058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5010290000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.503087</v>
+      </c>
+      <c r="I12">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="J12">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>65.34528366666666</v>
+      </c>
+      <c r="N12">
+        <v>196.035851</v>
+      </c>
+      <c r="O12">
+        <v>0.9791603749844046</v>
+      </c>
+      <c r="P12">
+        <v>0.9791603749844042</v>
+      </c>
+      <c r="Q12">
+        <v>32.73988213022633</v>
+      </c>
+      <c r="R12">
+        <v>294.658939172037</v>
+      </c>
+      <c r="S12">
+        <v>0.02937882025887312</v>
+      </c>
+      <c r="T12">
+        <v>0.0293788202588731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5010290000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.503087</v>
+      </c>
+      <c r="I13">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="J13">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.443316</v>
+      </c>
+      <c r="O13">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P13">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q13">
+        <v>0.4080573907213333</v>
+      </c>
+      <c r="R13">
+        <v>3.672516516492</v>
+      </c>
+      <c r="S13">
+        <v>0.0003661663988166575</v>
+      </c>
+      <c r="T13">
+        <v>0.0003661663988166573</v>
       </c>
     </row>
   </sheetData>
